--- a/30 s/heuristique_sol.xlsx
+++ b/30 s/heuristique_sol.xlsx
@@ -72,7 +72,7 @@
     <t>66.037468 / 55.119391</t>
   </si>
   <si>
-    <t>[5][10][3, 2][9, 6][7][8, 1, 4]</t>
+    <t>[5][10][7][9, 6][2, 3][8, 1, 4]</t>
   </si>
   <si>
     <t>10_ulysses_9.tsp</t>
@@ -96,10 +96,10 @@
     <t>14_burma_6.tsp</t>
   </si>
   <si>
-    <t>56.52842 / 43.31407</t>
-  </si>
-  <si>
-    <t>[7][2, 8][12, 14, 6][1, 11, 9][10, 13][4, 3, 5]</t>
+    <t>56.52842 / 42.740624</t>
+  </si>
+  <si>
+    <t>[7][2, 13][12, 14, 6][1, 11, 8][10, 9][4, 3, 5]</t>
   </si>
   <si>
     <t>14_burma_9.tsp</t>
@@ -108,25 +108,25 @@
     <t>34.365277 / 20.762439</t>
   </si>
   <si>
-    <t>[7][2][4, 3][1, 8][11, 9][6, 12][5][14, 13][10]</t>
+    <t>[7][11, 9][8, 1][13, 14][12, 6][5][10][4, 3][2]</t>
   </si>
   <si>
     <t>22_ulysses_3.tsp</t>
   </si>
   <si>
-    <t>611.11393 / 529.49155</t>
-  </si>
-  <si>
-    <t>[7, 4, 22, 8, 17, 16, 19][21, 3, 11, 10, 9, 2][6, 13, 18, 20, 12, 5, 15, 14, 1]</t>
+    <t>611.11393 / 445.92591</t>
+  </si>
+  <si>
+    <t>[7, 5, 11, 10, 6, 9, 12][8, 17, 3, 16, 15, 4, 2][13, 20, 1, 14, 19, 21, 22, 18]</t>
   </si>
   <si>
     <t>22_ulysses_6.tsp</t>
   </si>
   <si>
-    <t>185.71962 / 161.88854</t>
-  </si>
-  <si>
-    <t>[21, 10, 22, 1][7, 5, 20, 6][9, 11][8, 3, 17, 4][13, 12, 19, 15][16, 14, 18, 2]</t>
+    <t>185.71962 / 150.89245</t>
+  </si>
+  <si>
+    <t>[21, 19, 1][7, 6, 5, 20][9, 11][8, 3, 4, 22, 18][15, 10, 12, 14][16, 13, 17, 2]</t>
   </si>
   <si>
     <t>22_ulysses_9.tsp</t>
@@ -135,34 +135,34 @@
     <t>121.84141 / 91.820815</t>
   </si>
   <si>
-    <t>[21, 2][7, 1][9, 3][5, 11][14, 12, 15][16, 17, 22][8, 4, 18][10, 6][20, 19, 13]</t>
+    <t>[7, 1][2, 21][22, 16, 17][5, 11][15, 14, 12][4, 18, 8][9, 3][10, 6][20, 19, 13]</t>
   </si>
   <si>
     <t>26_eil_3.tsp</t>
   </si>
   <si>
-    <t>3300.0705 / 2722.2165</t>
-  </si>
-  <si>
-    <t>[23, 26, 7, 8, 24, 22, 18, 3, 20][9, 21, 5, 16, 10, 4, 2, 11][19, 25, 14, 1, 12, 13, 17, 15, 6]</t>
+    <t>3300.0705 / 2937.2667</t>
+  </si>
+  <si>
+    <t>[23, 26, 7, 8, 18, 24, 1, 3][2, 9, 21, 5, 4, 10, 11, 20][19, 6, 25, 14, 22, 13, 12, 17, 15, 16]</t>
   </si>
   <si>
     <t>26_eil_6.tsp</t>
   </si>
   <si>
-    <t>1504.4338 / 1024.1479</t>
-  </si>
-  <si>
-    <t>[1, 18, 9, 11][13, 4, 19][12, 17, 15, 5, 10][21, 16, 20, 2, 3][6, 25, 14, 24][7, 8, 22, 26, 23]</t>
+    <t>1504.4338 / 1037.622</t>
+  </si>
+  <si>
+    <t>[4, 17, 5, 10][13, 19, 15, 14][16, 20, 21, 9, 11][1, 22, 26, 2, 3][18, 12, 6, 25][8, 23, 7, 24]</t>
   </si>
   <si>
     <t>26_eil_9.tsp</t>
   </si>
   <si>
-    <t>1100.5689 / 846.41701</t>
-  </si>
-  <si>
-    <t>[4, 25][9, 21, 20][19, 12, 17][2, 3, 16][23, 26, 22][24, 1, 7][8, 14, 18][11, 6, 10][5, 13, 15]</t>
+    <t>1100.5689 / 762.82048</t>
+  </si>
+  <si>
+    <t>[4, 25][18, 13][8, 24, 26][3, 1, 2][23, 22, 7][10, 9, 15][12, 19, 17][6, 14, 5][21, 11, 16, 20]</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>29.000999927520752</v>
+        <v>29.00100016593933</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -605,7 +605,7 @@
         <v>16</v>
       </c>
       <c r="B5">
-        <v>29.000999927520752</v>
+        <v>29.00100016593933</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -625,7 +625,7 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>29.000999927520752</v>
+        <v>29.01699995994568</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -645,7 +645,7 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>29.002000093460083</v>
+        <v>29.000999927520752</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -665,7 +665,7 @@
         <v>25</v>
       </c>
       <c r="B8">
-        <v>29.015000104904175</v>
+        <v>29.000999927520752</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -685,7 +685,7 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>29.002000093460083</v>
+        <v>29.000999927520752</v>
       </c>
       <c r="C9" t="s">
         <v>29</v>
@@ -705,7 +705,7 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>29.00499987602234</v>
+        <v>29.000999927520752</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -725,7 +725,7 @@
         <v>34</v>
       </c>
       <c r="B11">
-        <v>29.003999948501587</v>
+        <v>29.0479998588562</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
@@ -745,7 +745,7 @@
         <v>37</v>
       </c>
       <c r="B12">
-        <v>29.003000020980835</v>
+        <v>29.003999948501587</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -765,7 +765,7 @@
         <v>40</v>
       </c>
       <c r="B13">
-        <v>29.003999948501587</v>
+        <v>29.000999927520752</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -785,7 +785,7 @@
         <v>43</v>
       </c>
       <c r="B14">
-        <v>29.00100016593933</v>
+        <v>29.000999927520752</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
